--- a/CPlusPlus/src/course/需要拷贝软件/c++培训课纲.xlsx
+++ b/CPlusPlus/src/course/需要拷贝软件/c++培训课纲.xlsx
@@ -440,10 +440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -491,14 +491,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,38 +560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,14 +583,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,16 +605,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,22 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,181 +661,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,15 +846,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,6 +876,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -906,17 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -932,17 +936,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,148 +951,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,11 +1124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1190,6 +1190,54 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480695</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2343785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493635" y="11099800"/>
+          <a:ext cx="3864610" cy="2350135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,7 +1501,7 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A39" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2413,7 @@
         <f>SUM(D39:D42)</f>
         <v>3</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2439,7 +2487,7 @@
         <f>SUM(D46,D47,D48,D50,D49)</f>
         <v>22</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2485,10 +2533,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2735,18 +2783,16 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" customFormat="1" spans="1:5">
+    <row r="27" customFormat="1" ht="188" customHeight="1" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
@@ -2764,222 +2810,104 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5">
-        <f>SUM(D18:D28)</f>
-        <v>12</v>
+        <f>SUM(D20:D28)</f>
+        <v>11</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="3:5">
+    <row r="30" customFormat="1" spans="1:3">
+      <c r="A30" s="1"/>
       <c r="C30" s="2"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" customFormat="1" ht="52" customHeight="1" spans="3:5">
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="1"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" ht="54" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" customFormat="1" ht="40.5" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>80</v>
+      <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:4">
+      <c r="A33" s="6"/>
+      <c r="C33" t="s">
+        <v>58</v>
       </c>
       <c r="D33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" s="6"/>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:5">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="6"/>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:5">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5">
-        <f>SUM(D19:D34)</f>
-        <v>26</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" customFormat="1" ht="40.5" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" customFormat="1" spans="3:5">
-      <c r="C39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" customFormat="1" ht="135" spans="1:5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5">
-        <f>SUM(D37:D40)</f>
-        <v>3</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" ht="54" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:4">
-      <c r="A47" s="6"/>
-      <c r="C47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:4">
-      <c r="A48" s="6"/>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:5">
-      <c r="A49" s="6"/>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="5">
-        <f>SUM(D44,D45,D46,D48,D47)</f>
+      <c r="D37" s="5">
+        <f>SUM(D32,D33,D34,D36,D35)</f>
         <v>22</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" customFormat="1" spans="1:5">
-      <c r="A51" s="5" t="s">
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:5">
+      <c r="A39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
